--- a/app/Recursos Marcas/Madly In Love/Plantilla modificada.xlsx
+++ b/app/Recursos Marcas/Madly In Love/Plantilla modificada.xlsx
@@ -142,22 +142,22 @@
     <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+Chaos+of+the+Stars/Camiseta+_Chaos+of+the+Stars_+1+Blanco.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+Chaos+of+the+Stars/Camiseta+_Chaos+of+the+Stars_+10+Marron.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+Chaos+of+the+Stars/Camiseta+_Chaos+of+the+Stars_+11+Marron.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+Chaos+of+the+Stars/Camiseta+_Chaos+of+the+Stars_+12+Marron.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+Chaos+of+the+Stars/Camiseta+_Chaos+of+the+Stars_+2+Blanco.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+Chaos+of+the+Stars/Camiseta+_Chaos+of+the+Stars_+3+Blanco.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+Chaos+of+the+Stars/Camiseta+_Chaos+of+the+Stars_+4+Blanco.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+Chaos+of+the+Stars/Camiseta+_Chaos+of+the+Stars_+5+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+Chaos+of+the+Stars/Camiseta+_Chaos+of+the+Stars_+6+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+Chaos+of+the+Stars/Camiseta+_Chaos+of+the+Stars_+7+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+Chaos+of+the+Stars/Camiseta+_Chaos+of+the+Stars_+8+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+Chaos+of+the+Stars/Camiseta+_Chaos+of+the+Stars_+9+Marron.jpg']</t>
   </si>
   <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+1+Marron.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+10+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+11+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+12+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+2+Marron.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+3+Marron.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+4+Marron.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+5+Morado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+6+Morado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+7+Morado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+8+Morado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+9+Rosa.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Top+Toxic+Love/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Top+Toxic+Love/Top+Toxic+Love+1+Blanco.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Top+The+Funky+Love/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Top+The+Funky+Love/Top+The+Funky+Love+1+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Top+The+Funky+Love/Top+The+Funky+Love+2+Estampado.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Pantalón+The+Funky+Love/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Pantalón+The+Funky+Love/Pantalon+The+Funky+Love+1+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Pantalón+The+Funky+Love/Pantalon+The+Funky+Love+2+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Pantalón+The+Funky+Love/Pantalon+The+Funky+Love+3+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Pantalón+The+Funky+Love/Pantalon+The+Funky+Love+4+Estampado.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Pantalón+The+Jungle+love/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Pantalón+The+Jungle+love/Pantalon+The+Jungle+love+1+Estampado.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Falda+The+Psychedelic+Love/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Falda+The+Psychedelic+Love/Falda+The+Psychedelic+Love++3+Morado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Falda+The+Psychedelic+Love/Falda+The+Psychedelic+Love++5+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Falda+The+Psychedelic+Love/Falda+The+Psychedelic+Love+1+Azul.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Falda+The+Psychedelic+Love/Falda+The+Psychedelic+Love+2+Azul.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Falda+The+Psychedelic+Love/Falda+The+Psychedelic+Love+4+Morado.jpg']</t>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+1+Marron.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+10+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+11+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+12+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+2+Marron.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+3+Marron.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+4+Marron.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+5+Morado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+6+Morado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+7+Morado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+8+Morado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Camiseta+More+than/Camiseta+_More+than_+9+Rosa.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Top+Toxic+Love/Top+Toxic+Love+1+Blanco.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Top+The+Funky+Love/Top+The+Funky+Love+1+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Top+The+Funky+Love/Top+The+Funky+Love+2+Estampado.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Pantal%E0%B8%82n+The+Funky+Love/Pantalon+The+Funky+Love+1+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Pantal%E0%B8%82n+The+Funky+Love/Pantalon+The+Funky+Love+2+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Pantal%E0%B8%82n+The+Funky+Love/Pantalon+The+Funky+Love+3+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Pantal%E0%B8%82n+The+Funky+Love/Pantalon+The+Funky+Love+4+Estampado.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Pantal%E0%B8%82n+The+Jungle+love/Pantalon+The+Jungle+love+1+Estampado.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Falda+The+Psychedelic+Love/Falda+The+Psychedelic+Love++3+Morado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Falda+The+Psychedelic+Love/Falda+The+Psychedelic+Love++5+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Falda+The+Psychedelic+Love/Falda+The+Psychedelic+Love+1+Azul.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Falda+The+Psychedelic+Love/Falda+The+Psychedelic+Love+2+Azul.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Madly+In+Love/Falda+The+Psychedelic+Love/Falda+The+Psychedelic+Love+4+Morado.jpg']</t>
   </si>
 </sst>
 </file>
